--- a/biology/Botanique/Exposition_Florale/Exposition_Florale.xlsx
+++ b/biology/Botanique/Exposition_Florale/Exposition_Florale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Exposition Florale est une association loi de 1901 dont le but est de créer une exposition florale, dite « Expo Flo », tous les 2 ans, depuis 1976[2]. Son siège, qui est aussi le lieu où se déroule la manifestation, se situe sur le campus de L'Institut Agro campus d’Angers, en France[3]. Elle est intégralement dirigée par une cinquantaine d’étudiants de cette même école[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Exposition Florale est une association loi de 1901 dont le but est de créer une exposition florale, dite « Expo Flo », tous les 2 ans, depuis 1976. Son siège, qui est aussi le lieu où se déroule la manifestation, se situe sur le campus de L'Institut Agro campus d’Angers, en France. Elle est intégralement dirigée par une cinquantaine d’étudiants de cette même école.
 </t>
         </is>
       </c>
@@ -511,23 +523,25 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, 22 expositions florales ont eu lieu depuis les débuts de l'association en 1976. L’idée de la création d’une exposition florale, trouve son origine peu après l’ouverture de l’école à Angers en 1971. La première exposition florale, en tant que telle, est organisée par les cinquième années en 1978[note 1]. Depuis, elles ont lieu tous les deux ans (à l’exception de 1980), et ont chacune un thème différent[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, 22 expositions florales ont eu lieu depuis les débuts de l'association en 1976. L’idée de la création d’une exposition florale, trouve son origine peu après l’ouverture de l’école à Angers en 1971. La première exposition florale, en tant que telle, est organisée par les cinquième années en 1978[note 1]. Depuis, elles ont lieu tous les deux ans (à l’exception de 1980), et ont chacune un thème différent :
 2006 (14ème édition) « Le vert aux couleurs du monde »
-2008 (15ème édition) « Le végétal fait son cirque »[6]
-2010 (16ème édition) « Vert un autre monde »[7]
-2012 (17ème édition) « Le végétal fait campagne »[8]
-2014 (18ème édition) « On s’est planté d’époque »[9]
-2016 (19ème édition) « Semons la Zizanie »[10]
-2018 (20ème édition) « Des plants sur la comète »[11]
-2020 (21ème édition - Annulée) « L'an vert du décor »[12]
+2008 (15ème édition) « Le végétal fait son cirque »
+2010 (16ème édition) « Vert un autre monde »
+2012 (17ème édition) « Le végétal fait campagne »
+2014 (18ème édition) « On s’est planté d’époque »
+2016 (19ème édition) « Semons la Zizanie »
+2018 (20ème édition) « Des plants sur la comète »
+2020 (21ème édition - Annulée) « L'an vert du décor »
 2022 (22ème édition) « Les souf'fleurs de rêves »
 2024 (23ème édition) « 20 000 lieux sous le vert »
-Chaque édition se voit attribuer un parrain. La 20ème édition a été parrainée par Alain Baraton[13], jardinier en chef du Parc du château de Versailles et la 17ème édition par Frédéric Courant[14], animateur de l’émission scientifique C’est pas sorcier.
-La 21ème édition devait être parrainée par l'agronome et enseignant-chercheur, Marc Dufumier[12].
-Cette édition est annulée le 12 mars 2020 en raison de la progression de la pandémie de maladie à coronavirus de 2019-2020[15].
-Celle-ci devait avoir lieu les 20, 21 et 22 mars 2020[12].
+Chaque édition se voit attribuer un parrain. La 20ème édition a été parrainée par Alain Baraton, jardinier en chef du Parc du château de Versailles et la 17ème édition par Frédéric Courant, animateur de l’émission scientifique C’est pas sorcier.
+La 21ème édition devait être parrainée par l'agronome et enseignant-chercheur, Marc Dufumier.
+Cette édition est annulée le 12 mars 2020 en raison de la progression de la pandémie de maladie à coronavirus de 2019-2020.
+Celle-ci devait avoir lieu les 20, 21 et 22 mars 2020.
 </t>
         </is>
       </c>
@@ -558,13 +572,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Déroulement et spécificités
-L’Exposition Florale, ou « Expo Flo », est ouverte au public à Agrocampus Ouest centre d’Angers, anciennement INHP (Institut national d'horticulture et de paysage). Durant 3 jours de la mi-mars, le vendredi, samedi et dimanche, une année sur deux[3]. Près de 15 000 végétaux[10] sont produits par les étudiants durant 2 ans. Ces végétaux formeront ensuite les décors de près d’une trentaine de stands végétalisés, réalisés au cours de la « semaine de montage »[16] qui précède l’ouverture au public.
-Les 6000 visiteurs[11] peuvent contempler au travers d’un parcours végétalisé, près de 8000m² d’aménagements intérieurs et extérieurs. Il y est possible d’assister aux animations des stands, participer à des conférences autour de l’horticulture et du paysage ainsi que découvrir des défilés végétaux et le spectacle de la nocturne[1],[17].
-À la suite du weekend d'ouverture au public, les étudiants poursuivent avec la période de "démontage" afin de libérer les locaux de l'ensemble des décors et permettre la reprise des cours dès le mardi matin[18].
-Objectifs
-L'exposition a pour vocation de sensibiliser le public aux nouveaux concepts paysagers, aux nouvelles pratiques horticoles et aux enjeux environnementaux de façon ludique et scientifique[19].
-Durant les deux années d’investissement de la part des élèves-ingénieurs, les membres de l’association sont confrontés au monde professionnel, avec par exemple le démarchage d’entreprise du monde de l’horticulture et du paysage. Les étudiants peuvent alors développer leurs compétences scientifiques, techniques, administratives et de management, représentant des atouts complémentaires de la formation proposée par l’établissement[4],[10].
+          <t>Déroulement et spécificités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Exposition Florale, ou « Expo Flo », est ouverte au public à Agrocampus Ouest centre d’Angers, anciennement INHP (Institut national d'horticulture et de paysage). Durant 3 jours de la mi-mars, le vendredi, samedi et dimanche, une année sur deux. Près de 15 000 végétaux sont produits par les étudiants durant 2 ans. Ces végétaux formeront ensuite les décors de près d’une trentaine de stands végétalisés, réalisés au cours de la « semaine de montage » qui précède l’ouverture au public.
+Les 6000 visiteurs peuvent contempler au travers d’un parcours végétalisé, près de 8000m² d’aménagements intérieurs et extérieurs. Il y est possible d’assister aux animations des stands, participer à des conférences autour de l’horticulture et du paysage ainsi que découvrir des défilés végétaux et le spectacle de la nocturne,.
+À la suite du weekend d'ouverture au public, les étudiants poursuivent avec la période de "démontage" afin de libérer les locaux de l'ensemble des décors et permettre la reprise des cours dès le mardi matin.
 </t>
         </is>
       </c>
@@ -590,12 +606,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>L'Expo Flo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Objectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exposition a pour vocation de sensibiliser le public aux nouveaux concepts paysagers, aux nouvelles pratiques horticoles et aux enjeux environnementaux de façon ludique et scientifique.
+Durant les deux années d’investissement de la part des élèves-ingénieurs, les membres de l’association sont confrontés au monde professionnel, avec par exemple le démarchage d’entreprise du monde de l’horticulture et du paysage. Les étudiants peuvent alors développer leurs compétences scientifiques, techniques, administratives et de management, représentant des atouts complémentaires de la formation proposée par l’établissement,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exposition_Florale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exposition_Florale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Organisation Interne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les membres de l’association sont au nombre de 450 et représentent l’ensemble des étudiants de L'Institut Agro centre d’Angers[10]. Le conseil d’administration[16] (CA) est constitué de six membres du Bureau et de chefs de secteurs  répartis dans 16 secteurs[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les membres de l’association sont au nombre de 450 et représentent l’ensemble des étudiants de L'Institut Agro centre d’Angers. Le conseil d’administration (CA) est constitué de six membres du Bureau et de chefs de secteurs  répartis dans 16 secteurs.
 Le CA est renouvelé après chaque édition de l’Exposition Florale par une nouvelle équipe d’étudiants.
 </t>
         </is>
